--- a/Improgress/2. Artifact and Deliverable/Test case/K22T1_TeamBDS_ SIT_Quanlythôngtin.xlsx
+++ b/Improgress/2. Artifact and Deliverable/Test case/K22T1_TeamBDS_ SIT_Quanlythôngtin.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Capstone-Project\Improgress\2. Artifact and Deliverable\Test case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4960914-8DA4-4640-935F-EA0FC8190180}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21D1F822-C2B3-4D33-BC01-95B6A6971A1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{DC4DB269-603C-4B5B-A498-B166C8A18B92}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="180">
   <si>
     <t>Author</t>
   </si>
@@ -482,9 +482,6 @@
     <t xml:space="preserve">  Admin sửa thông tài khoản trong web Admin thì danh sách nhân sự sẽ được cập nhật theo và hiển thị ở mobile app user có thể xem được </t>
   </si>
   <si>
-    <t xml:space="preserve">Admin ẩn tài khoản trong web Admin thì danh sách nhân sự ở mobile sẽ ẩn đi nhân sự đó và user không thấy được </t>
-  </si>
-  <si>
     <t>TC-BDS-QLTT-4</t>
   </si>
   <si>
@@ -495,17 +492,6 @@
   </si>
   <si>
     <t xml:space="preserve">Hiển thị giao dien thêm tài khoản </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nhập tên đăng nhập 
--nhập mật khẩu 
-- nhập SDT 
--nhập Email
-- Nhập ngày sinh 
-- Nhập địa chỉ 
-- Nhập Chức vụ 
--NHập phòng ban 
-Nhập Doanh số </t>
   </si>
   <si>
     <t>tên đăng nhập :Trương Quang A
@@ -602,15 +588,9 @@
     <t xml:space="preserve">Hiển thị giao diên danh sách các tài khoản </t>
   </si>
   <si>
-    <t xml:space="preserve">Hiển thị trạng thái ẩn ở cột trạng thái trong danh sách </t>
-  </si>
-  <si>
     <t xml:space="preserve">trạng thái tài khoản quay trở lại ban đầu </t>
   </si>
   <si>
-    <t xml:space="preserve">Kiễm tra Admin ẩn tài khoản trong web Admin thì danh sách nhân sự ở mobile sẽ ẩn đi nhân sự đó và user không thấy được </t>
-  </si>
-  <si>
     <t>TC-BDS-QLTT-7</t>
   </si>
   <si>
@@ -618,10 +598,6 @@
   </si>
   <si>
     <t xml:space="preserve">Nguyễn Văn A </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nhấn nút " Ẩn   " trong của tài khoản
-</t>
   </si>
   <si>
     <t>Không Hiển thị giao diên danh sách nhân sự gồm :
@@ -630,21 +606,68 @@
 -sdt: 09854252212</t>
   </si>
   <si>
-    <t xml:space="preserve">Nhấn nút " Ẩn   " trong tài khoản
+    <t>Nhập Mã nhân viên 
+-Nhập tên người dùng
+-nhập mật khẩu 
+- nhập SDT 
+-nhập Email
+- Nhập ngày sinh 
+- Nhập địa chỉ 
+- Nhập Chức vụ 
+-NHập phòng ban 
+-Nhập Nhóm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admin khóa tài khoản trong web Admin thì danh sách nhân sự ở mobile sẽ ẩn đi nhân sự đó và user không thấy được </t>
+  </si>
+  <si>
+    <t>Admin khóa tài khoản trong Wed Admin thì User không thể đăng nhập vào hệ thống App bằng tài khoản đó .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiễm tra Admin khóa tài khoản trong web Admin thì danh sách nhân sự ở mobile sẽ ẩn đi nhân sự đó và user không thấy được  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiễm tra Admin khóa tài khoản trong web Admin thì danh sách nhân sự ở mobile sẽ ẩn đi nhân sự đó và user không thấy được </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nhấn chọn tài khoản 
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Nhấn nút " ẩn " trong  tài khoản 
+    <t xml:space="preserve">Nhấn nút " kích hoạt "
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Admin thêm tài khoản trong web Admin thì danh sách nhân sự sẽ được cập nhật ở webAdmin và admin có thể xem ds nhân sự </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kiểm tra Admin thêm tài khoản trong web Admin thì danh sách nhân sự sẽ được cập nhật ở webAdmin và admin có thể xem ds nhân sự </t>
-  </si>
-  <si>
-    <t>TC-BDS-QLTT-9</t>
+    <t xml:space="preserve">Chọn tài khoàn và nhấn " Khóa "
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiển thị trạng thái khóa ở cột trạng thái trong danh sách </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiển thị trạng thái Khóa ở cột trạng thái trong danh sách </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Người dùng truy cập vào App Bất Động Sản </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dẫn tới trang đăng nhập của App Bất Động Sản </t>
+  </si>
+  <si>
+    <t>Hệ thống hiển thị giao diện trang đăng nhập</t>
+  </si>
+  <si>
+    <t>Nhập thông tin tài khoản chính xác vào trường Username và Password</t>
+  </si>
+  <si>
+    <t>Username: t163492@gmail.com
+Password: 123456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiển thị thông báo lỗi" tài khoản đã bị khóa "  khi người dùng đăng nhập bằng tài khoản đã bị khóa </t>
+  </si>
+  <si>
+    <t>Nhấn Đăng nhập và quan sát kết quả hiển thị</t>
   </si>
 </sst>
 </file>
@@ -654,7 +677,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -770,6 +793,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="5" tint="0.79998168889431442"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1311,7 +1340,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1444,6 +1473,18 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1549,6 +1590,24 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1573,61 +1632,46 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="39" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="40" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1969,31 +2013,31 @@
   <sheetData>
     <row r="1" spans="2:5" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
     </row>
     <row r="3" spans="2:5" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
     </row>
     <row r="4" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="7"/>
     </row>
     <row r="5" spans="2:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="49"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="53"/>
     </row>
     <row r="6" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="19" t="s">
@@ -2066,19 +2110,19 @@
       <c r="E11" s="8"/>
     </row>
     <row r="12" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="50"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="52"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="56"/>
     </row>
     <row r="13" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="47" t="s">
+      <c r="B14" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="49"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="53"/>
     </row>
     <row r="15" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="19" t="s">
@@ -2087,40 +2131,40 @@
       <c r="C15" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="57" t="s">
+      <c r="D15" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="58"/>
+      <c r="E15" s="62"/>
     </row>
     <row r="16" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="9"/>
       <c r="C16" s="12"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="60"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="64"/>
     </row>
     <row r="17" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="11"/>
       <c r="C17" s="12"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="60"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="64"/>
     </row>
     <row r="18" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="11"/>
       <c r="C18" s="12"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="60"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="64"/>
     </row>
     <row r="19" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="11"/>
       <c r="C19" s="12"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="60"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="64"/>
     </row>
     <row r="20" spans="2:5" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="54"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="56"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -2161,7 +2205,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -2179,80 +2223,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
     </row>
     <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="71" t="s">
+      <c r="B2" s="74"/>
+      <c r="C2" s="75" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="72"/>
+      <c r="D2" s="76"/>
       <c r="E2" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="71" t="s">
+      <c r="F2" s="75" t="s">
         <v>120</v>
       </c>
-      <c r="G2" s="73"/>
-      <c r="H2" s="74"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="78"/>
     </row>
     <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="77" t="s">
+      <c r="B3" s="80"/>
+      <c r="C3" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="78"/>
+      <c r="D3" s="82"/>
       <c r="E3" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="77"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="80"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="84"/>
     </row>
     <row r="4" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="63" t="s">
+      <c r="B4" s="66"/>
+      <c r="C4" s="67" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="64"/>
+      <c r="D4" s="68"/>
       <c r="E4" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="63" t="s">
+      <c r="F4" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="65"/>
-      <c r="H4" s="66"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="70"/>
     </row>
     <row r="7" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="67" t="s">
+      <c r="A7" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="67"/>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="67"/>
+      <c r="B7" s="71"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
     </row>
     <row r="8" spans="1:8" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="22" t="s">
@@ -2409,7 +2453,7 @@
       </c>
       <c r="C15" s="33"/>
       <c r="D15" s="16" t="s">
-        <v>132</v>
+        <v>164</v>
       </c>
       <c r="E15" s="31" t="s">
         <v>35</v>
@@ -2429,7 +2473,7 @@
       </c>
       <c r="C16" s="33"/>
       <c r="D16" s="16" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="E16" s="31" t="s">
         <v>35</v>
@@ -2541,11 +2585,11 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2348A1D5-4253-4771-A133-25F9BE04457B}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:I94"/>
+  <dimension ref="A1:J92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G86" sqref="G86"/>
+      <pane ySplit="3" topLeftCell="A79" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B83" sqref="B83:B91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2557,31 +2601,31 @@
     <col min="5" max="5" width="35.5703125" style="1" customWidth="1"/>
     <col min="6" max="6" width="4.85546875" style="1" customWidth="1"/>
     <col min="7" max="7" width="33.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="23.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="35.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="43.140625" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="98" t="s">
+    <row r="1" spans="1:10" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="100" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-    </row>
-    <row r="2" spans="1:9" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
+      <c r="I1" s="100"/>
+    </row>
+    <row r="2" spans="1:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="4"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="22" t="s">
         <v>2</v>
       </c>
@@ -2607,34 +2651,38 @@
       <c r="I3" s="23" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="97" t="s">
+      <c r="J3" s="23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="99" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="97"/>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-    </row>
-    <row r="5" spans="1:9" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="99"/>
+      <c r="C4" s="99"/>
+      <c r="D4" s="99"/>
+      <c r="E4" s="99"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="99"/>
+      <c r="H4" s="99"/>
+      <c r="I4" s="99"/>
+      <c r="J4" s="49"/>
+    </row>
+    <row r="5" spans="1:10" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="89">
         <v>1</v>
       </c>
-      <c r="B5" s="81" t="s">
+      <c r="B5" s="91" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="83" t="s">
+      <c r="C5" s="93" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="85" t="s">
+      <c r="D5" s="95" t="s">
         <v>98</v>
       </c>
-      <c r="E5" s="87" t="s">
+      <c r="E5" s="97" t="s">
         <v>99</v>
       </c>
       <c r="F5" s="43">
@@ -2647,13 +2695,14 @@
       <c r="I5" s="37" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" s="38" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J5" s="85"/>
+    </row>
+    <row r="6" spans="1:10" s="38" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="90"/>
-      <c r="B6" s="82"/>
-      <c r="C6" s="84"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="88"/>
+      <c r="B6" s="92"/>
+      <c r="C6" s="94"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="98"/>
       <c r="F6" s="43">
         <v>2</v>
       </c>
@@ -2664,13 +2713,14 @@
       <c r="I6" s="39" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" s="5" customFormat="1" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J6" s="86"/>
+    </row>
+    <row r="7" spans="1:10" s="5" customFormat="1" ht="73.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="90"/>
-      <c r="B7" s="82"/>
-      <c r="C7" s="84"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="88"/>
+      <c r="B7" s="92"/>
+      <c r="C7" s="94"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="98"/>
       <c r="F7" s="43">
         <v>3</v>
       </c>
@@ -2681,13 +2731,14 @@
       <c r="I7" s="39" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" s="5" customFormat="1" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J7" s="86"/>
+    </row>
+    <row r="8" spans="1:10" s="5" customFormat="1" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="90"/>
-      <c r="B8" s="82"/>
-      <c r="C8" s="84"/>
-      <c r="D8" s="86"/>
-      <c r="E8" s="88"/>
+      <c r="B8" s="92"/>
+      <c r="C8" s="94"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="98"/>
       <c r="F8" s="43">
         <v>4</v>
       </c>
@@ -2698,13 +2749,14 @@
       <c r="I8" s="39" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" s="5" customFormat="1" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J8" s="86"/>
+    </row>
+    <row r="9" spans="1:10" s="5" customFormat="1" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="90"/>
-      <c r="B9" s="82"/>
-      <c r="C9" s="84"/>
-      <c r="D9" s="86"/>
-      <c r="E9" s="88"/>
+      <c r="B9" s="92"/>
+      <c r="C9" s="94"/>
+      <c r="D9" s="96"/>
+      <c r="E9" s="98"/>
       <c r="F9" s="43">
         <v>5</v>
       </c>
@@ -2717,13 +2769,14 @@
       <c r="I9" s="39" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" s="5" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J9" s="86"/>
+    </row>
+    <row r="10" spans="1:10" s="5" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="90"/>
-      <c r="B10" s="82"/>
-      <c r="C10" s="84"/>
-      <c r="D10" s="86"/>
-      <c r="E10" s="88"/>
+      <c r="B10" s="92"/>
+      <c r="C10" s="94"/>
+      <c r="D10" s="96"/>
+      <c r="E10" s="98"/>
       <c r="F10" s="43">
         <v>6</v>
       </c>
@@ -2734,13 +2787,14 @@
       <c r="I10" s="39" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" s="5" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J10" s="86"/>
+    </row>
+    <row r="11" spans="1:10" s="5" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="90"/>
-      <c r="B11" s="82"/>
-      <c r="C11" s="84"/>
-      <c r="D11" s="86"/>
-      <c r="E11" s="88"/>
+      <c r="B11" s="92"/>
+      <c r="C11" s="94"/>
+      <c r="D11" s="96"/>
+      <c r="E11" s="98"/>
       <c r="F11" s="43">
         <v>7</v>
       </c>
@@ -2751,13 +2805,14 @@
       <c r="I11" s="39" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J11" s="86"/>
+    </row>
+    <row r="12" spans="1:10" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="90"/>
-      <c r="B12" s="82"/>
-      <c r="C12" s="84"/>
-      <c r="D12" s="86"/>
-      <c r="E12" s="88"/>
+      <c r="B12" s="92"/>
+      <c r="C12" s="94"/>
+      <c r="D12" s="96"/>
+      <c r="E12" s="98"/>
       <c r="F12" s="43">
         <v>8</v>
       </c>
@@ -2768,13 +2823,14 @@
       <c r="I12" s="37" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" s="38" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J12" s="86"/>
+    </row>
+    <row r="13" spans="1:10" s="38" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="90"/>
-      <c r="B13" s="82"/>
-      <c r="C13" s="84"/>
-      <c r="D13" s="86"/>
-      <c r="E13" s="88"/>
+      <c r="B13" s="92"/>
+      <c r="C13" s="94"/>
+      <c r="D13" s="96"/>
+      <c r="E13" s="98"/>
       <c r="F13" s="43">
         <v>9</v>
       </c>
@@ -2785,38 +2841,40 @@
       <c r="I13" s="39" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" s="5" customFormat="1" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J13" s="86"/>
+    </row>
+    <row r="14" spans="1:10" s="5" customFormat="1" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="90"/>
-      <c r="B14" s="82"/>
-      <c r="C14" s="84"/>
-      <c r="D14" s="86"/>
-      <c r="E14" s="88"/>
+      <c r="B14" s="92"/>
+      <c r="C14" s="94"/>
+      <c r="D14" s="96"/>
+      <c r="E14" s="98"/>
       <c r="F14" s="43">
         <v>10</v>
       </c>
-      <c r="G14" s="99" t="s">
+      <c r="G14" s="46" t="s">
         <v>96</v>
       </c>
       <c r="H14" s="31"/>
       <c r="I14" s="31" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" s="42" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J14" s="87"/>
+    </row>
+    <row r="15" spans="1:10" s="42" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="89">
         <v>1</v>
       </c>
-      <c r="B15" s="81" t="s">
+      <c r="B15" s="91" t="s">
         <v>83</v>
       </c>
-      <c r="C15" s="83" t="s">
+      <c r="C15" s="93" t="s">
         <v>100</v>
       </c>
-      <c r="D15" s="85" t="s">
+      <c r="D15" s="95" t="s">
         <v>101</v>
       </c>
-      <c r="E15" s="87" t="s">
+      <c r="E15" s="97" t="s">
         <v>59</v>
       </c>
       <c r="F15" s="43">
@@ -2829,13 +2887,14 @@
       <c r="I15" s="37" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" s="38" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J15" s="85"/>
+    </row>
+    <row r="16" spans="1:10" s="38" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="90"/>
-      <c r="B16" s="82"/>
-      <c r="C16" s="84"/>
-      <c r="D16" s="86"/>
-      <c r="E16" s="88"/>
+      <c r="B16" s="92"/>
+      <c r="C16" s="94"/>
+      <c r="D16" s="96"/>
+      <c r="E16" s="98"/>
       <c r="F16" s="43">
         <v>2</v>
       </c>
@@ -2846,13 +2905,14 @@
       <c r="I16" s="39" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" s="42" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J16" s="86"/>
+    </row>
+    <row r="17" spans="1:10" s="42" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="90"/>
-      <c r="B17" s="82"/>
-      <c r="C17" s="84"/>
-      <c r="D17" s="86"/>
-      <c r="E17" s="88"/>
+      <c r="B17" s="92"/>
+      <c r="C17" s="94"/>
+      <c r="D17" s="96"/>
+      <c r="E17" s="98"/>
       <c r="F17" s="43">
         <v>3</v>
       </c>
@@ -2863,13 +2923,14 @@
       <c r="I17" s="39" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" s="42" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J17" s="86"/>
+    </row>
+    <row r="18" spans="1:10" s="42" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="90"/>
-      <c r="B18" s="82"/>
-      <c r="C18" s="84"/>
-      <c r="D18" s="86"/>
-      <c r="E18" s="88"/>
+      <c r="B18" s="92"/>
+      <c r="C18" s="94"/>
+      <c r="D18" s="96"/>
+      <c r="E18" s="98"/>
       <c r="F18" s="43">
         <v>4</v>
       </c>
@@ -2880,13 +2941,14 @@
       <c r="I18" s="39" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" s="42" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J18" s="86"/>
+    </row>
+    <row r="19" spans="1:10" s="42" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="90"/>
-      <c r="B19" s="82"/>
-      <c r="C19" s="84"/>
-      <c r="D19" s="86"/>
-      <c r="E19" s="88"/>
+      <c r="B19" s="92"/>
+      <c r="C19" s="94"/>
+      <c r="D19" s="96"/>
+      <c r="E19" s="98"/>
       <c r="F19" s="43">
         <v>5</v>
       </c>
@@ -2897,13 +2959,14 @@
         <v>69</v>
       </c>
       <c r="I19" s="39"/>
-    </row>
-    <row r="20" spans="1:9" s="42" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J19" s="86"/>
+    </row>
+    <row r="20" spans="1:10" s="42" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="90"/>
-      <c r="B20" s="82"/>
-      <c r="C20" s="84"/>
-      <c r="D20" s="86"/>
-      <c r="E20" s="88"/>
+      <c r="B20" s="92"/>
+      <c r="C20" s="94"/>
+      <c r="D20" s="96"/>
+      <c r="E20" s="98"/>
       <c r="F20" s="43">
         <v>6</v>
       </c>
@@ -2914,13 +2977,14 @@
       <c r="I20" s="39" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" s="42" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J20" s="86"/>
+    </row>
+    <row r="21" spans="1:10" s="42" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="90"/>
-      <c r="B21" s="82"/>
-      <c r="C21" s="84"/>
-      <c r="D21" s="86"/>
-      <c r="E21" s="88"/>
+      <c r="B21" s="92"/>
+      <c r="C21" s="94"/>
+      <c r="D21" s="96"/>
+      <c r="E21" s="98"/>
       <c r="F21" s="43">
         <v>7</v>
       </c>
@@ -2933,13 +2997,14 @@
       <c r="I21" s="39" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" s="42" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J21" s="86"/>
+    </row>
+    <row r="22" spans="1:10" s="42" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="90"/>
-      <c r="B22" s="82"/>
-      <c r="C22" s="84"/>
-      <c r="D22" s="86"/>
-      <c r="E22" s="88"/>
+      <c r="B22" s="92"/>
+      <c r="C22" s="94"/>
+      <c r="D22" s="96"/>
+      <c r="E22" s="98"/>
       <c r="F22" s="43">
         <v>8</v>
       </c>
@@ -2950,13 +3015,14 @@
       <c r="I22" s="39" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" s="42" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J22" s="86"/>
+    </row>
+    <row r="23" spans="1:10" s="42" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="90"/>
-      <c r="B23" s="82"/>
-      <c r="C23" s="84"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="88"/>
+      <c r="B23" s="92"/>
+      <c r="C23" s="94"/>
+      <c r="D23" s="96"/>
+      <c r="E23" s="98"/>
       <c r="F23" s="43">
         <v>9</v>
       </c>
@@ -2967,13 +3033,14 @@
       <c r="I23" s="39" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J23" s="86"/>
+    </row>
+    <row r="24" spans="1:10" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="90"/>
-      <c r="B24" s="82"/>
-      <c r="C24" s="84"/>
-      <c r="D24" s="86"/>
-      <c r="E24" s="88"/>
+      <c r="B24" s="92"/>
+      <c r="C24" s="94"/>
+      <c r="D24" s="96"/>
+      <c r="E24" s="98"/>
       <c r="F24" s="43">
         <v>10</v>
       </c>
@@ -2984,13 +3051,14 @@
       <c r="I24" s="37" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" s="38" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J24" s="86"/>
+    </row>
+    <row r="25" spans="1:10" s="38" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="90"/>
-      <c r="B25" s="82"/>
-      <c r="C25" s="84"/>
-      <c r="D25" s="86"/>
-      <c r="E25" s="88"/>
+      <c r="B25" s="92"/>
+      <c r="C25" s="94"/>
+      <c r="D25" s="96"/>
+      <c r="E25" s="98"/>
       <c r="F25" s="43">
         <v>11</v>
       </c>
@@ -3001,13 +3069,14 @@
       <c r="I25" s="39" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" s="5" customFormat="1" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J25" s="86"/>
+    </row>
+    <row r="26" spans="1:10" s="5" customFormat="1" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="90"/>
-      <c r="B26" s="82"/>
-      <c r="C26" s="84"/>
-      <c r="D26" s="86"/>
-      <c r="E26" s="88"/>
+      <c r="B26" s="92"/>
+      <c r="C26" s="94"/>
+      <c r="D26" s="96"/>
+      <c r="E26" s="98"/>
       <c r="F26" s="43">
         <v>12</v>
       </c>
@@ -3018,17 +3087,18 @@
       <c r="I26" s="39" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" s="5" customFormat="1" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J26" s="86"/>
+    </row>
+    <row r="27" spans="1:10" s="5" customFormat="1" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="90"/>
-      <c r="B27" s="82"/>
-      <c r="C27" s="84"/>
-      <c r="D27" s="86"/>
-      <c r="E27" s="88"/>
+      <c r="B27" s="92"/>
+      <c r="C27" s="94"/>
+      <c r="D27" s="96"/>
+      <c r="E27" s="98"/>
       <c r="F27" s="43">
         <v>13</v>
       </c>
-      <c r="G27" s="99" t="s">
+      <c r="G27" s="46" t="s">
         <v>104</v>
       </c>
       <c r="H27" s="31" t="s">
@@ -3037,21 +3107,22 @@
       <c r="I27" s="31" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J27" s="87"/>
+    </row>
+    <row r="28" spans="1:10" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="89">
         <v>1</v>
       </c>
-      <c r="B28" s="81" t="s">
+      <c r="B28" s="91" t="s">
         <v>84</v>
       </c>
-      <c r="C28" s="83" t="s">
+      <c r="C28" s="93" t="s">
         <v>112</v>
       </c>
-      <c r="D28" s="85" t="s">
+      <c r="D28" s="95" t="s">
         <v>115</v>
       </c>
-      <c r="E28" s="87" t="s">
+      <c r="E28" s="97" t="s">
         <v>59</v>
       </c>
       <c r="F28" s="43">
@@ -3064,13 +3135,14 @@
       <c r="I28" s="37" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" s="38" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J28" s="85"/>
+    </row>
+    <row r="29" spans="1:10" s="38" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="90"/>
-      <c r="B29" s="82"/>
-      <c r="C29" s="84"/>
-      <c r="D29" s="86"/>
-      <c r="E29" s="88"/>
+      <c r="B29" s="92"/>
+      <c r="C29" s="94"/>
+      <c r="D29" s="96"/>
+      <c r="E29" s="98"/>
       <c r="F29" s="43">
         <v>2</v>
       </c>
@@ -3081,13 +3153,14 @@
       <c r="I29" s="39" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J29" s="86"/>
+    </row>
+    <row r="30" spans="1:10" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="90"/>
-      <c r="B30" s="82"/>
-      <c r="C30" s="84"/>
-      <c r="D30" s="86"/>
-      <c r="E30" s="88"/>
+      <c r="B30" s="92"/>
+      <c r="C30" s="94"/>
+      <c r="D30" s="96"/>
+      <c r="E30" s="98"/>
       <c r="F30" s="43">
         <v>3</v>
       </c>
@@ -3098,13 +3171,14 @@
       <c r="I30" s="39" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" s="5" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J30" s="86"/>
+    </row>
+    <row r="31" spans="1:10" s="5" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="90"/>
-      <c r="B31" s="82"/>
-      <c r="C31" s="84"/>
-      <c r="D31" s="86"/>
-      <c r="E31" s="88"/>
+      <c r="B31" s="92"/>
+      <c r="C31" s="94"/>
+      <c r="D31" s="96"/>
+      <c r="E31" s="98"/>
       <c r="F31" s="43">
         <v>4</v>
       </c>
@@ -3117,13 +3191,14 @@
       <c r="I31" s="39" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" s="5" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J31" s="86"/>
+    </row>
+    <row r="32" spans="1:10" s="5" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="90"/>
-      <c r="B32" s="82"/>
-      <c r="C32" s="84"/>
-      <c r="D32" s="86"/>
-      <c r="E32" s="88"/>
+      <c r="B32" s="92"/>
+      <c r="C32" s="94"/>
+      <c r="D32" s="96"/>
+      <c r="E32" s="98"/>
       <c r="F32" s="43">
         <v>5</v>
       </c>
@@ -3134,13 +3209,14 @@
       <c r="I32" s="39" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" s="5" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J32" s="86"/>
+    </row>
+    <row r="33" spans="1:10" s="5" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="90"/>
-      <c r="B33" s="82"/>
-      <c r="C33" s="84"/>
-      <c r="D33" s="86"/>
-      <c r="E33" s="88"/>
+      <c r="B33" s="92"/>
+      <c r="C33" s="94"/>
+      <c r="D33" s="96"/>
+      <c r="E33" s="98"/>
       <c r="F33" s="43">
         <v>6</v>
       </c>
@@ -3153,13 +3229,14 @@
       <c r="I33" s="39" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" s="5" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J33" s="86"/>
+    </row>
+    <row r="34" spans="1:10" s="5" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="90"/>
-      <c r="B34" s="82"/>
-      <c r="C34" s="84"/>
-      <c r="D34" s="86"/>
-      <c r="E34" s="88"/>
+      <c r="B34" s="92"/>
+      <c r="C34" s="94"/>
+      <c r="D34" s="96"/>
+      <c r="E34" s="98"/>
       <c r="F34" s="43">
         <v>7</v>
       </c>
@@ -3170,13 +3247,14 @@
       <c r="I34" s="39" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" s="5" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J34" s="86"/>
+    </row>
+    <row r="35" spans="1:10" s="5" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="90"/>
-      <c r="B35" s="82"/>
-      <c r="C35" s="84"/>
-      <c r="D35" s="86"/>
-      <c r="E35" s="88"/>
+      <c r="B35" s="92"/>
+      <c r="C35" s="94"/>
+      <c r="D35" s="96"/>
+      <c r="E35" s="98"/>
       <c r="F35" s="43">
         <v>8</v>
       </c>
@@ -3187,13 +3265,14 @@
       <c r="I35" s="39" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J35" s="86"/>
+    </row>
+    <row r="36" spans="1:10" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="90"/>
-      <c r="B36" s="82"/>
-      <c r="C36" s="84"/>
-      <c r="D36" s="86"/>
-      <c r="E36" s="88"/>
+      <c r="B36" s="92"/>
+      <c r="C36" s="94"/>
+      <c r="D36" s="96"/>
+      <c r="E36" s="98"/>
       <c r="F36" s="43">
         <v>9</v>
       </c>
@@ -3204,13 +3283,14 @@
       <c r="I36" s="37" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" s="38" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J36" s="86"/>
+    </row>
+    <row r="37" spans="1:10" s="38" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="90"/>
-      <c r="B37" s="82"/>
-      <c r="C37" s="84"/>
-      <c r="D37" s="86"/>
-      <c r="E37" s="88"/>
+      <c r="B37" s="92"/>
+      <c r="C37" s="94"/>
+      <c r="D37" s="96"/>
+      <c r="E37" s="98"/>
       <c r="F37" s="43">
         <v>10</v>
       </c>
@@ -3221,13 +3301,14 @@
       <c r="I37" s="39" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" s="5" customFormat="1" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J37" s="86"/>
+    </row>
+    <row r="38" spans="1:10" s="5" customFormat="1" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="90"/>
-      <c r="B38" s="82"/>
-      <c r="C38" s="84"/>
-      <c r="D38" s="86"/>
-      <c r="E38" s="88"/>
+      <c r="B38" s="92"/>
+      <c r="C38" s="94"/>
+      <c r="D38" s="96"/>
+      <c r="E38" s="98"/>
       <c r="F38" s="43">
         <v>11</v>
       </c>
@@ -3238,17 +3319,18 @@
       <c r="I38" s="39" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" s="5" customFormat="1" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J38" s="86"/>
+    </row>
+    <row r="39" spans="1:10" s="5" customFormat="1" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="90"/>
-      <c r="B39" s="82"/>
-      <c r="C39" s="84"/>
-      <c r="D39" s="86"/>
-      <c r="E39" s="88"/>
+      <c r="B39" s="92"/>
+      <c r="C39" s="94"/>
+      <c r="D39" s="96"/>
+      <c r="E39" s="98"/>
       <c r="F39" s="43">
         <v>12</v>
       </c>
-      <c r="G39" s="99" t="s">
+      <c r="G39" s="46" t="s">
         <v>104</v>
       </c>
       <c r="H39" s="31" t="s">
@@ -3257,21 +3339,22 @@
       <c r="I39" s="31" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J39" s="87"/>
+    </row>
+    <row r="40" spans="1:10" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="89">
         <v>1</v>
       </c>
-      <c r="B40" s="81" t="s">
+      <c r="B40" s="91" t="s">
         <v>85</v>
       </c>
-      <c r="C40" s="83" t="s">
-        <v>133</v>
-      </c>
-      <c r="D40" s="85" t="s">
+      <c r="C40" s="93" t="s">
+        <v>132</v>
+      </c>
+      <c r="D40" s="95" t="s">
         <v>114</v>
       </c>
-      <c r="E40" s="87" t="s">
+      <c r="E40" s="97" t="s">
         <v>59</v>
       </c>
       <c r="F40" s="43">
@@ -3284,13 +3367,14 @@
       <c r="I40" s="37" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" s="38" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J40" s="85"/>
+    </row>
+    <row r="41" spans="1:10" s="38" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="90"/>
-      <c r="B41" s="82"/>
-      <c r="C41" s="84"/>
-      <c r="D41" s="86"/>
-      <c r="E41" s="88"/>
+      <c r="B41" s="92"/>
+      <c r="C41" s="94"/>
+      <c r="D41" s="96"/>
+      <c r="E41" s="98"/>
       <c r="F41" s="43">
         <v>2</v>
       </c>
@@ -3301,13 +3385,14 @@
       <c r="I41" s="39" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J41" s="86"/>
+    </row>
+    <row r="42" spans="1:10" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="90"/>
-      <c r="B42" s="82"/>
-      <c r="C42" s="84"/>
-      <c r="D42" s="86"/>
-      <c r="E42" s="88"/>
+      <c r="B42" s="92"/>
+      <c r="C42" s="94"/>
+      <c r="D42" s="96"/>
+      <c r="E42" s="98"/>
       <c r="F42" s="43">
         <v>3</v>
       </c>
@@ -3318,13 +3403,14 @@
       <c r="I42" s="39" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" s="5" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J42" s="86"/>
+    </row>
+    <row r="43" spans="1:10" s="5" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="90"/>
-      <c r="B43" s="82"/>
-      <c r="C43" s="84"/>
-      <c r="D43" s="86"/>
-      <c r="E43" s="88"/>
+      <c r="B43" s="92"/>
+      <c r="C43" s="94"/>
+      <c r="D43" s="96"/>
+      <c r="E43" s="98"/>
       <c r="F43" s="43">
         <v>4</v>
       </c>
@@ -3337,13 +3423,14 @@
       <c r="I43" s="39" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J43" s="86"/>
+    </row>
+    <row r="44" spans="1:10" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="90"/>
-      <c r="B44" s="82"/>
-      <c r="C44" s="84"/>
-      <c r="D44" s="86"/>
-      <c r="E44" s="88"/>
+      <c r="B44" s="92"/>
+      <c r="C44" s="94"/>
+      <c r="D44" s="96"/>
+      <c r="E44" s="98"/>
       <c r="F44" s="43">
         <v>5</v>
       </c>
@@ -3354,13 +3441,14 @@
       <c r="I44" s="37" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" s="38" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J44" s="86"/>
+    </row>
+    <row r="45" spans="1:10" s="38" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="90"/>
-      <c r="B45" s="82"/>
-      <c r="C45" s="84"/>
-      <c r="D45" s="86"/>
-      <c r="E45" s="88"/>
+      <c r="B45" s="92"/>
+      <c r="C45" s="94"/>
+      <c r="D45" s="96"/>
+      <c r="E45" s="98"/>
       <c r="F45" s="43">
         <v>6</v>
       </c>
@@ -3371,13 +3459,14 @@
       <c r="I45" s="39" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" s="5" customFormat="1" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J45" s="86"/>
+    </row>
+    <row r="46" spans="1:10" s="5" customFormat="1" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="90"/>
-      <c r="B46" s="82"/>
-      <c r="C46" s="84"/>
-      <c r="D46" s="86"/>
-      <c r="E46" s="88"/>
+      <c r="B46" s="92"/>
+      <c r="C46" s="94"/>
+      <c r="D46" s="96"/>
+      <c r="E46" s="98"/>
       <c r="F46" s="43">
         <v>7</v>
       </c>
@@ -3388,38 +3477,40 @@
       <c r="I46" s="39" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" s="5" customFormat="1" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J46" s="86"/>
+    </row>
+    <row r="47" spans="1:10" s="5" customFormat="1" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="90"/>
-      <c r="B47" s="82"/>
-      <c r="C47" s="84"/>
-      <c r="D47" s="86"/>
-      <c r="E47" s="88"/>
+      <c r="B47" s="92"/>
+      <c r="C47" s="94"/>
+      <c r="D47" s="96"/>
+      <c r="E47" s="98"/>
       <c r="F47" s="43">
         <v>8</v>
       </c>
-      <c r="G47" s="99" t="s">
+      <c r="G47" s="46" t="s">
         <v>104</v>
       </c>
       <c r="H47" s="31"/>
       <c r="I47" s="31" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J47" s="87"/>
+    </row>
+    <row r="48" spans="1:10" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="89">
         <v>1</v>
       </c>
-      <c r="B48" s="81" t="s">
+      <c r="B48" s="91" t="s">
         <v>123</v>
       </c>
-      <c r="C48" s="83" t="s">
-        <v>141</v>
-      </c>
-      <c r="D48" s="85" t="s">
-        <v>142</v>
-      </c>
-      <c r="E48" s="87" t="s">
+      <c r="C48" s="93" t="s">
+        <v>139</v>
+      </c>
+      <c r="D48" s="95" t="s">
+        <v>140</v>
+      </c>
+      <c r="E48" s="97" t="s">
         <v>99</v>
       </c>
       <c r="F48" s="43">
@@ -3432,64 +3523,68 @@
       <c r="I48" s="37" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" s="38" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J48" s="85"/>
+    </row>
+    <row r="49" spans="1:10" s="38" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="90"/>
-      <c r="B49" s="82"/>
-      <c r="C49" s="84"/>
-      <c r="D49" s="86"/>
-      <c r="E49" s="88"/>
+      <c r="B49" s="92"/>
+      <c r="C49" s="94"/>
+      <c r="D49" s="96"/>
+      <c r="E49" s="98"/>
       <c r="F49" s="43">
         <v>2</v>
       </c>
       <c r="G49" s="41" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H49" s="39"/>
       <c r="I49" s="39" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+      <c r="J49" s="86"/>
+    </row>
+    <row r="50" spans="1:10" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="90"/>
-      <c r="B50" s="82"/>
-      <c r="C50" s="84"/>
-      <c r="D50" s="86"/>
-      <c r="E50" s="88"/>
+      <c r="B50" s="92"/>
+      <c r="C50" s="94"/>
+      <c r="D50" s="96"/>
+      <c r="E50" s="98"/>
       <c r="F50" s="43">
         <v>3</v>
       </c>
       <c r="G50" s="41" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H50" s="39"/>
       <c r="I50" s="39" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" s="5" customFormat="1" ht="137.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+      <c r="J50" s="86"/>
+    </row>
+    <row r="51" spans="1:10" s="5" customFormat="1" ht="137.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="90"/>
-      <c r="B51" s="82"/>
-      <c r="C51" s="84"/>
-      <c r="D51" s="86"/>
-      <c r="E51" s="88"/>
+      <c r="B51" s="92"/>
+      <c r="C51" s="94"/>
+      <c r="D51" s="96"/>
+      <c r="E51" s="98"/>
       <c r="F51" s="43">
         <v>4</v>
       </c>
       <c r="G51" s="41" t="s">
-        <v>137</v>
+        <v>163</v>
       </c>
       <c r="H51" s="39" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I51" s="39"/>
-    </row>
-    <row r="52" spans="1:9" s="5" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J51" s="86"/>
+    </row>
+    <row r="52" spans="1:10" s="5" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="90"/>
-      <c r="B52" s="82"/>
-      <c r="C52" s="84"/>
-      <c r="D52" s="86"/>
-      <c r="E52" s="88"/>
+      <c r="B52" s="92"/>
+      <c r="C52" s="94"/>
+      <c r="D52" s="96"/>
+      <c r="E52" s="98"/>
       <c r="F52" s="43">
         <v>5</v>
       </c>
@@ -3500,13 +3595,14 @@
       <c r="I52" s="39" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" s="5" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J52" s="86"/>
+    </row>
+    <row r="53" spans="1:10" s="5" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="90"/>
-      <c r="B53" s="82"/>
-      <c r="C53" s="84"/>
-      <c r="D53" s="86"/>
-      <c r="E53" s="88"/>
+      <c r="B53" s="92"/>
+      <c r="C53" s="94"/>
+      <c r="D53" s="96"/>
+      <c r="E53" s="98"/>
       <c r="F53" s="43">
         <v>6</v>
       </c>
@@ -3514,18 +3610,19 @@
         <v>72</v>
       </c>
       <c r="H53" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I53" s="39" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" s="5" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J53" s="86"/>
+    </row>
+    <row r="54" spans="1:10" s="5" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="90"/>
-      <c r="B54" s="82"/>
-      <c r="C54" s="84"/>
-      <c r="D54" s="86"/>
-      <c r="E54" s="88"/>
+      <c r="B54" s="92"/>
+      <c r="C54" s="94"/>
+      <c r="D54" s="96"/>
+      <c r="E54" s="98"/>
       <c r="F54" s="43">
         <v>7</v>
       </c>
@@ -3536,13 +3633,14 @@
       <c r="I54" s="39" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" s="5" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J54" s="86"/>
+    </row>
+    <row r="55" spans="1:10" s="5" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="90"/>
-      <c r="B55" s="82"/>
-      <c r="C55" s="84"/>
-      <c r="D55" s="86"/>
-      <c r="E55" s="88"/>
+      <c r="B55" s="92"/>
+      <c r="C55" s="94"/>
+      <c r="D55" s="96"/>
+      <c r="E55" s="98"/>
       <c r="F55" s="43">
         <v>8</v>
       </c>
@@ -3551,15 +3649,16 @@
       </c>
       <c r="H55" s="39"/>
       <c r="I55" s="39" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+      <c r="J55" s="86"/>
+    </row>
+    <row r="56" spans="1:10" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="90"/>
-      <c r="B56" s="82"/>
-      <c r="C56" s="84"/>
-      <c r="D56" s="86"/>
-      <c r="E56" s="88"/>
+      <c r="B56" s="92"/>
+      <c r="C56" s="94"/>
+      <c r="D56" s="96"/>
+      <c r="E56" s="98"/>
       <c r="F56" s="43">
         <v>9</v>
       </c>
@@ -3570,13 +3669,14 @@
       <c r="I56" s="37" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" s="38" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J56" s="86"/>
+    </row>
+    <row r="57" spans="1:10" s="38" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="90"/>
-      <c r="B57" s="82"/>
-      <c r="C57" s="84"/>
-      <c r="D57" s="86"/>
-      <c r="E57" s="88"/>
+      <c r="B57" s="92"/>
+      <c r="C57" s="94"/>
+      <c r="D57" s="96"/>
+      <c r="E57" s="98"/>
       <c r="F57" s="43">
         <v>10</v>
       </c>
@@ -3587,39 +3687,41 @@
       <c r="I57" s="39" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" s="5" customFormat="1" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J57" s="86"/>
+    </row>
+    <row r="58" spans="1:10" s="5" customFormat="1" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="90"/>
-      <c r="B58" s="82"/>
-      <c r="C58" s="84"/>
-      <c r="D58" s="86"/>
-      <c r="E58" s="88"/>
+      <c r="B58" s="92"/>
+      <c r="C58" s="94"/>
+      <c r="D58" s="96"/>
+      <c r="E58" s="98"/>
       <c r="F58" s="43">
         <v>11</v>
       </c>
-      <c r="G58" s="99" t="s">
-        <v>143</v>
+      <c r="G58" s="46" t="s">
+        <v>141</v>
       </c>
       <c r="H58" s="31"/>
       <c r="I58" s="31" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+      <c r="J58" s="87"/>
+    </row>
+    <row r="59" spans="1:10" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="89">
         <v>1</v>
       </c>
-      <c r="B59" s="81" t="s">
+      <c r="B59" s="91" t="s">
         <v>124</v>
       </c>
-      <c r="C59" s="83" t="s">
-        <v>156</v>
-      </c>
-      <c r="D59" s="85" t="s">
-        <v>157</v>
-      </c>
-      <c r="E59" s="87" t="s">
-        <v>146</v>
+      <c r="C59" s="93" t="s">
+        <v>154</v>
+      </c>
+      <c r="D59" s="95" t="s">
+        <v>155</v>
+      </c>
+      <c r="E59" s="97" t="s">
+        <v>144</v>
       </c>
       <c r="F59" s="43">
         <v>1</v>
@@ -3631,64 +3733,68 @@
       <c r="I59" s="37" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" s="38" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J59" s="85"/>
+    </row>
+    <row r="60" spans="1:10" s="38" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="90"/>
-      <c r="B60" s="82"/>
-      <c r="C60" s="84"/>
-      <c r="D60" s="86"/>
-      <c r="E60" s="88"/>
+      <c r="B60" s="92"/>
+      <c r="C60" s="94"/>
+      <c r="D60" s="96"/>
+      <c r="E60" s="98"/>
       <c r="F60" s="43">
         <v>2</v>
       </c>
       <c r="G60" s="41" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H60" s="39"/>
       <c r="I60" s="39" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+      <c r="J60" s="86"/>
+    </row>
+    <row r="61" spans="1:10" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="90"/>
-      <c r="B61" s="82"/>
-      <c r="C61" s="84"/>
-      <c r="D61" s="86"/>
-      <c r="E61" s="88"/>
+      <c r="B61" s="92"/>
+      <c r="C61" s="94"/>
+      <c r="D61" s="96"/>
+      <c r="E61" s="98"/>
       <c r="F61" s="43">
         <v>3</v>
       </c>
       <c r="G61" s="41" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H61" s="39"/>
       <c r="I61" s="39" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" s="5" customFormat="1" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+      <c r="J61" s="86"/>
+    </row>
+    <row r="62" spans="1:10" s="5" customFormat="1" ht="67.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="90"/>
-      <c r="B62" s="82"/>
-      <c r="C62" s="84"/>
-      <c r="D62" s="86"/>
-      <c r="E62" s="88"/>
+      <c r="B62" s="92"/>
+      <c r="C62" s="94"/>
+      <c r="D62" s="96"/>
+      <c r="E62" s="98"/>
       <c r="F62" s="43">
         <v>4</v>
       </c>
       <c r="G62" s="41" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="H62" s="39" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I62" s="39"/>
-    </row>
-    <row r="63" spans="1:9" s="5" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J62" s="86"/>
+    </row>
+    <row r="63" spans="1:10" s="5" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="90"/>
-      <c r="B63" s="82"/>
-      <c r="C63" s="84"/>
-      <c r="D63" s="86"/>
-      <c r="E63" s="88"/>
+      <c r="B63" s="92"/>
+      <c r="C63" s="94"/>
+      <c r="D63" s="96"/>
+      <c r="E63" s="98"/>
       <c r="F63" s="43">
         <v>5</v>
       </c>
@@ -3699,13 +3805,14 @@
       <c r="I63" s="39" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" s="5" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J63" s="86"/>
+    </row>
+    <row r="64" spans="1:10" s="5" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="90"/>
-      <c r="B64" s="82"/>
-      <c r="C64" s="84"/>
-      <c r="D64" s="86"/>
-      <c r="E64" s="88"/>
+      <c r="B64" s="92"/>
+      <c r="C64" s="94"/>
+      <c r="D64" s="96"/>
+      <c r="E64" s="98"/>
       <c r="F64" s="43">
         <v>6</v>
       </c>
@@ -3713,18 +3820,19 @@
         <v>77</v>
       </c>
       <c r="H64" s="39" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I64" s="39" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" s="5" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+      <c r="J64" s="86"/>
+    </row>
+    <row r="65" spans="1:10" s="5" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="90"/>
-      <c r="B65" s="82"/>
-      <c r="C65" s="84"/>
-      <c r="D65" s="86"/>
-      <c r="E65" s="88"/>
+      <c r="B65" s="92"/>
+      <c r="C65" s="94"/>
+      <c r="D65" s="96"/>
+      <c r="E65" s="98"/>
       <c r="F65" s="43">
         <v>7</v>
       </c>
@@ -3737,13 +3845,14 @@
       <c r="I65" s="39" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" s="5" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J65" s="86"/>
+    </row>
+    <row r="66" spans="1:10" s="5" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="90"/>
-      <c r="B66" s="82"/>
-      <c r="C66" s="84"/>
-      <c r="D66" s="86"/>
-      <c r="E66" s="88"/>
+      <c r="B66" s="92"/>
+      <c r="C66" s="94"/>
+      <c r="D66" s="96"/>
+      <c r="E66" s="98"/>
       <c r="F66" s="43">
         <v>8</v>
       </c>
@@ -3752,15 +3861,16 @@
       </c>
       <c r="H66" s="39"/>
       <c r="I66" s="39" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>153</v>
+      </c>
+      <c r="J66" s="86"/>
+    </row>
+    <row r="67" spans="1:10" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="90"/>
-      <c r="B67" s="82"/>
-      <c r="C67" s="84"/>
-      <c r="D67" s="86"/>
-      <c r="E67" s="88"/>
+      <c r="B67" s="92"/>
+      <c r="C67" s="94"/>
+      <c r="D67" s="96"/>
+      <c r="E67" s="98"/>
       <c r="F67" s="43">
         <v>9</v>
       </c>
@@ -3771,13 +3881,14 @@
       <c r="I67" s="37" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" s="38" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J67" s="86"/>
+    </row>
+    <row r="68" spans="1:10" s="38" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="90"/>
-      <c r="B68" s="82"/>
-      <c r="C68" s="84"/>
-      <c r="D68" s="86"/>
-      <c r="E68" s="88"/>
+      <c r="B68" s="92"/>
+      <c r="C68" s="94"/>
+      <c r="D68" s="96"/>
+      <c r="E68" s="98"/>
       <c r="F68" s="43">
         <v>10</v>
       </c>
@@ -3788,39 +3899,41 @@
       <c r="I68" s="39" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" s="5" customFormat="1" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J68" s="86"/>
+    </row>
+    <row r="69" spans="1:10" s="5" customFormat="1" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="90"/>
-      <c r="B69" s="82"/>
-      <c r="C69" s="84"/>
-      <c r="D69" s="86"/>
-      <c r="E69" s="88"/>
+      <c r="B69" s="92"/>
+      <c r="C69" s="94"/>
+      <c r="D69" s="96"/>
+      <c r="E69" s="98"/>
       <c r="F69" s="43">
         <v>11</v>
       </c>
-      <c r="G69" s="99" t="s">
-        <v>143</v>
+      <c r="G69" s="46" t="s">
+        <v>141</v>
       </c>
       <c r="H69" s="31"/>
       <c r="I69" s="31" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>142</v>
+      </c>
+      <c r="J69" s="87"/>
+    </row>
+    <row r="70" spans="1:10" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="89">
         <v>1</v>
       </c>
-      <c r="B70" s="83" t="s">
+      <c r="B70" s="93" t="s">
         <v>125</v>
       </c>
-      <c r="C70" s="83" t="s">
-        <v>163</v>
-      </c>
-      <c r="D70" s="85" t="s">
-        <v>162</v>
-      </c>
-      <c r="E70" s="85" t="s">
-        <v>146</v>
+      <c r="C70" s="93" t="s">
+        <v>159</v>
+      </c>
+      <c r="D70" s="95" t="s">
+        <v>167</v>
+      </c>
+      <c r="E70" s="95" t="s">
+        <v>144</v>
       </c>
       <c r="F70" s="43">
         <v>1</v>
@@ -3832,51 +3945,54 @@
       <c r="I70" s="37" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" s="38" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J70" s="85"/>
+    </row>
+    <row r="71" spans="1:10" s="38" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="90"/>
-      <c r="B71" s="84"/>
-      <c r="C71" s="84"/>
-      <c r="D71" s="86"/>
-      <c r="E71" s="86"/>
+      <c r="B71" s="94"/>
+      <c r="C71" s="94"/>
+      <c r="D71" s="96"/>
+      <c r="E71" s="96"/>
       <c r="F71" s="43">
         <v>2</v>
       </c>
       <c r="G71" s="41" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H71" s="39"/>
       <c r="I71" s="39" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" s="5" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+      <c r="J71" s="86"/>
+    </row>
+    <row r="72" spans="1:10" s="5" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="90"/>
-      <c r="B72" s="84"/>
-      <c r="C72" s="84"/>
-      <c r="D72" s="86"/>
-      <c r="E72" s="86"/>
+      <c r="B72" s="94"/>
+      <c r="C72" s="94"/>
+      <c r="D72" s="96"/>
+      <c r="E72" s="96"/>
       <c r="F72" s="43">
         <v>3</v>
       </c>
       <c r="G72" s="41" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="H72" s="39" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="I72" s="39" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>171</v>
+      </c>
+      <c r="J72" s="86"/>
+    </row>
+    <row r="73" spans="1:10" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="44"/>
-      <c r="B73" s="84"/>
-      <c r="C73" s="84"/>
-      <c r="D73" s="86"/>
-      <c r="E73" s="86"/>
+      <c r="B73" s="94"/>
+      <c r="C73" s="94"/>
+      <c r="D73" s="96"/>
+      <c r="E73" s="96"/>
       <c r="F73" s="43">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G73" s="40" t="s">
         <v>94</v>
@@ -3885,15 +4001,16 @@
       <c r="I73" s="37" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" s="38" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J73" s="86"/>
+    </row>
+    <row r="74" spans="1:10" s="38" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="44"/>
-      <c r="B74" s="84"/>
-      <c r="C74" s="84"/>
-      <c r="D74" s="86"/>
-      <c r="E74" s="86"/>
+      <c r="B74" s="94"/>
+      <c r="C74" s="94"/>
+      <c r="D74" s="96"/>
+      <c r="E74" s="96"/>
       <c r="F74" s="43">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G74" s="41" t="s">
         <v>95</v>
@@ -3902,37 +4019,39 @@
       <c r="I74" s="39" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" s="5" customFormat="1" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J74" s="86"/>
+    </row>
+    <row r="75" spans="1:10" s="5" customFormat="1" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="44"/>
-      <c r="B75" s="84"/>
-      <c r="C75" s="92"/>
-      <c r="D75" s="94"/>
-      <c r="E75" s="94"/>
+      <c r="B75" s="94"/>
+      <c r="C75" s="101"/>
+      <c r="D75" s="102"/>
+      <c r="E75" s="102"/>
       <c r="F75" s="43">
-        <v>11</v>
-      </c>
-      <c r="G75" s="99" t="s">
-        <v>143</v>
+        <v>6</v>
+      </c>
+      <c r="G75" s="46" t="s">
+        <v>141</v>
       </c>
       <c r="H75" s="31"/>
       <c r="I75" s="31" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+      <c r="J75" s="87"/>
+    </row>
+    <row r="76" spans="1:10" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="89">
         <v>1</v>
       </c>
-      <c r="B76" s="84"/>
-      <c r="C76" s="83" t="s">
-        <v>164</v>
-      </c>
-      <c r="D76" s="101" t="s">
-        <v>162</v>
-      </c>
-      <c r="E76" s="85" t="s">
-        <v>146</v>
+      <c r="B76" s="94"/>
+      <c r="C76" s="93" t="s">
+        <v>160</v>
+      </c>
+      <c r="D76" s="104" t="s">
+        <v>166</v>
+      </c>
+      <c r="E76" s="95" t="s">
+        <v>144</v>
       </c>
       <c r="F76" s="43">
         <v>1</v>
@@ -3944,30 +4063,32 @@
       <c r="I76" s="37" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" s="38" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J76" s="85"/>
+    </row>
+    <row r="77" spans="1:10" s="38" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="90"/>
-      <c r="B77" s="84"/>
-      <c r="C77" s="84"/>
-      <c r="D77" s="102"/>
-      <c r="E77" s="86"/>
+      <c r="B77" s="94"/>
+      <c r="C77" s="94"/>
+      <c r="D77" s="105"/>
+      <c r="E77" s="96"/>
       <c r="F77" s="43">
         <v>2</v>
       </c>
       <c r="G77" s="41" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H77" s="39"/>
       <c r="I77" s="39" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" s="5" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+      <c r="J77" s="86"/>
+    </row>
+    <row r="78" spans="1:10" s="5" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="90"/>
-      <c r="B78" s="84"/>
-      <c r="C78" s="84"/>
-      <c r="D78" s="102"/>
-      <c r="E78" s="86"/>
+      <c r="B78" s="94"/>
+      <c r="C78" s="94"/>
+      <c r="D78" s="105"/>
+      <c r="E78" s="96"/>
       <c r="F78" s="43">
         <v>3</v>
       </c>
@@ -3975,18 +4096,19 @@
         <v>168</v>
       </c>
       <c r="H78" s="39" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="I78" s="39" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" s="5" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>172</v>
+      </c>
+      <c r="J78" s="86"/>
+    </row>
+    <row r="79" spans="1:10" s="5" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="90"/>
-      <c r="B79" s="84"/>
-      <c r="C79" s="84"/>
-      <c r="D79" s="102"/>
-      <c r="E79" s="86"/>
+      <c r="B79" s="94"/>
+      <c r="C79" s="94"/>
+      <c r="D79" s="105"/>
+      <c r="E79" s="96"/>
       <c r="F79" s="43">
         <v>4</v>
       </c>
@@ -3994,20 +4116,21 @@
         <v>169</v>
       </c>
       <c r="H79" s="39" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="I79" s="39" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+      <c r="J79" s="86"/>
+    </row>
+    <row r="80" spans="1:10" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="90"/>
-      <c r="B80" s="84"/>
-      <c r="C80" s="84"/>
-      <c r="D80" s="102"/>
-      <c r="E80" s="86"/>
+      <c r="B80" s="94"/>
+      <c r="C80" s="94"/>
+      <c r="D80" s="105"/>
+      <c r="E80" s="96"/>
       <c r="F80" s="43">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G80" s="40" t="s">
         <v>94</v>
@@ -4016,15 +4139,16 @@
       <c r="I80" s="37" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" s="38" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J80" s="86"/>
+    </row>
+    <row r="81" spans="1:10" s="38" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="90"/>
-      <c r="B81" s="84"/>
-      <c r="C81" s="84"/>
-      <c r="D81" s="102"/>
-      <c r="E81" s="86"/>
+      <c r="B81" s="94"/>
+      <c r="C81" s="94"/>
+      <c r="D81" s="105"/>
+      <c r="E81" s="96"/>
       <c r="F81" s="43">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G81" s="41" t="s">
         <v>95</v>
@@ -4033,233 +4157,220 @@
       <c r="I81" s="39" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" s="38" customFormat="1" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J81" s="86"/>
+    </row>
+    <row r="82" spans="1:10" s="38" customFormat="1" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="90"/>
-      <c r="B82" s="96"/>
-      <c r="C82" s="96"/>
-      <c r="D82" s="103"/>
-      <c r="E82" s="95"/>
-      <c r="F82" s="107">
-        <v>11</v>
-      </c>
-      <c r="G82" s="99" t="s">
-        <v>143</v>
+      <c r="B82" s="103"/>
+      <c r="C82" s="103"/>
+      <c r="D82" s="106"/>
+      <c r="E82" s="107"/>
+      <c r="F82" s="43">
+        <v>7</v>
+      </c>
+      <c r="G82" s="46" t="s">
+        <v>141</v>
       </c>
       <c r="H82" s="31"/>
       <c r="I82" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="J82" s="88"/>
+    </row>
+    <row r="83" spans="1:10" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="89">
+        <v>1</v>
+      </c>
+      <c r="B83" s="108" t="s">
+        <v>126</v>
+      </c>
+      <c r="C83" s="93" t="s">
+        <v>159</v>
+      </c>
+      <c r="D83" s="95" t="s">
+        <v>167</v>
+      </c>
+      <c r="E83" s="95" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="90"/>
-      <c r="B83" s="91" t="s">
-        <v>126</v>
-      </c>
-      <c r="C83" s="91" t="s">
-        <v>172</v>
-      </c>
-      <c r="D83" s="93" t="s">
-        <v>171</v>
-      </c>
-      <c r="E83" s="93" t="s">
-        <v>146</v>
-      </c>
-      <c r="F83" s="104">
+      <c r="F83" s="43">
         <v>1</v>
       </c>
-      <c r="G83" s="105" t="s">
+      <c r="G83" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="H83" s="106"/>
-      <c r="I83" s="106" t="s">
+      <c r="H83" s="37"/>
+      <c r="I83" s="37" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" s="38" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J83" s="112"/>
+    </row>
+    <row r="84" spans="1:10" s="38" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="90"/>
-      <c r="B84" s="84"/>
-      <c r="C84" s="84"/>
-      <c r="D84" s="86"/>
-      <c r="E84" s="86"/>
-      <c r="F84" s="104">
+      <c r="B84" s="94"/>
+      <c r="C84" s="94"/>
+      <c r="D84" s="96"/>
+      <c r="E84" s="96"/>
+      <c r="F84" s="43">
         <v>2</v>
       </c>
       <c r="G84" s="41" t="s">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="H84" s="39"/>
       <c r="I84" s="39" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+      <c r="J84" s="86"/>
+    </row>
+    <row r="85" spans="1:10" s="5" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="90"/>
-      <c r="B85" s="84"/>
-      <c r="C85" s="84"/>
-      <c r="D85" s="86"/>
-      <c r="E85" s="86"/>
-      <c r="F85" s="104">
+      <c r="B85" s="94"/>
+      <c r="C85" s="94"/>
+      <c r="D85" s="96"/>
+      <c r="E85" s="96"/>
+      <c r="F85" s="43">
         <v>3</v>
       </c>
       <c r="G85" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="H85" s="39"/>
+        <v>170</v>
+      </c>
+      <c r="H85" s="39" t="s">
+        <v>161</v>
+      </c>
       <c r="I85" s="39" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" s="5" customFormat="1" ht="137.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="90"/>
-      <c r="B86" s="84"/>
-      <c r="C86" s="84"/>
-      <c r="D86" s="86"/>
-      <c r="E86" s="86"/>
-      <c r="F86" s="104">
+        <v>171</v>
+      </c>
+      <c r="J85" s="86"/>
+    </row>
+    <row r="86" spans="1:10" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="48"/>
+      <c r="B86" s="94"/>
+      <c r="C86" s="94"/>
+      <c r="D86" s="96"/>
+      <c r="E86" s="96"/>
+      <c r="F86" s="43">
         <v>4</v>
       </c>
-      <c r="G86" s="41" t="s">
-        <v>137</v>
-      </c>
-      <c r="H86" s="39" t="s">
-        <v>138</v>
-      </c>
-      <c r="I86" s="39"/>
-    </row>
-    <row r="87" spans="1:9" s="5" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="90"/>
-      <c r="B87" s="84"/>
-      <c r="C87" s="84"/>
-      <c r="D87" s="86"/>
-      <c r="E87" s="86"/>
-      <c r="F87" s="104">
+      <c r="G86" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="H86" s="37"/>
+      <c r="I86" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="J86" s="86"/>
+    </row>
+    <row r="87" spans="1:10" s="38" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="48"/>
+      <c r="B87" s="94"/>
+      <c r="C87" s="94"/>
+      <c r="D87" s="96"/>
+      <c r="E87" s="96"/>
+      <c r="F87" s="43">
         <v>5</v>
       </c>
       <c r="G87" s="41" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="H87" s="39"/>
       <c r="I87" s="39" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" s="5" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="90"/>
-      <c r="B88" s="84"/>
-      <c r="C88" s="84"/>
-      <c r="D88" s="86"/>
-      <c r="E88" s="86"/>
-      <c r="F88" s="104">
+        <v>53</v>
+      </c>
+      <c r="J87" s="86"/>
+    </row>
+    <row r="88" spans="1:10" s="5" customFormat="1" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="48"/>
+      <c r="B88" s="94"/>
+      <c r="C88" s="94"/>
+      <c r="D88" s="96"/>
+      <c r="E88" s="102"/>
+      <c r="F88" s="43">
         <v>6</v>
       </c>
-      <c r="G88" s="41" t="s">
-        <v>72</v>
-      </c>
-      <c r="H88" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="I88" s="39" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" s="5" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="90"/>
-      <c r="B89" s="84"/>
-      <c r="C89" s="84"/>
-      <c r="D89" s="86"/>
-      <c r="E89" s="86"/>
-      <c r="F89" s="104">
+      <c r="G88" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="H88" s="31"/>
+      <c r="I88" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="J88" s="86"/>
+    </row>
+    <row r="89" spans="1:10" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="109">
+        <v>1</v>
+      </c>
+      <c r="B89" s="94"/>
+      <c r="C89" s="94"/>
+      <c r="D89" s="96"/>
+      <c r="E89" s="110" t="s">
+        <v>173</v>
+      </c>
+      <c r="F89" s="43">
         <v>7</v>
       </c>
-      <c r="G89" s="41" t="s">
-        <v>74</v>
-      </c>
-      <c r="H89" s="39"/>
-      <c r="I89" s="39" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" s="38" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="90"/>
-      <c r="B90" s="84"/>
-      <c r="C90" s="84"/>
-      <c r="D90" s="86"/>
-      <c r="E90" s="86"/>
-      <c r="F90" s="104">
+      <c r="G89" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="H89" s="31"/>
+      <c r="I89" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="J89" s="86"/>
+    </row>
+    <row r="90" spans="1:10" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="109"/>
+      <c r="B90" s="94"/>
+      <c r="C90" s="94"/>
+      <c r="D90" s="96"/>
+      <c r="E90" s="110"/>
+      <c r="F90" s="43">
         <v>8</v>
       </c>
-      <c r="G90" s="41" t="s">
-        <v>73</v>
-      </c>
-      <c r="H90" s="39"/>
-      <c r="I90" s="39" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" s="5" customFormat="1" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="90"/>
-      <c r="B91" s="84"/>
-      <c r="C91" s="84"/>
-      <c r="D91" s="86"/>
-      <c r="E91" s="86"/>
-      <c r="F91" s="104">
+      <c r="G90" s="31" t="s">
+        <v>176</v>
+      </c>
+      <c r="H90" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="I90" s="111" t="s">
+        <v>178</v>
+      </c>
+      <c r="J90" s="86"/>
+    </row>
+    <row r="91" spans="1:10" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="109"/>
+      <c r="B91" s="103"/>
+      <c r="C91" s="103"/>
+      <c r="D91" s="107"/>
+      <c r="E91" s="110"/>
+      <c r="F91" s="43">
         <v>9</v>
       </c>
-      <c r="G91" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="H91" s="37"/>
-      <c r="I91" s="37" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" s="38" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="90"/>
-      <c r="B92" s="84"/>
-      <c r="C92" s="84"/>
-      <c r="D92" s="86"/>
-      <c r="E92" s="86"/>
-      <c r="F92" s="104">
-        <v>10</v>
-      </c>
-      <c r="G92" s="41" t="s">
-        <v>95</v>
-      </c>
-      <c r="H92" s="39"/>
-      <c r="I92" s="39" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" s="5" customFormat="1" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="90"/>
-      <c r="B93" s="84"/>
-      <c r="C93" s="84"/>
-      <c r="D93" s="86"/>
-      <c r="E93" s="86"/>
-      <c r="F93" s="104">
-        <v>11</v>
-      </c>
-      <c r="G93" s="99" t="s">
-        <v>143</v>
-      </c>
-      <c r="H93" s="31"/>
-      <c r="I93" s="31" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C94" s="45"/>
-      <c r="E94" s="100"/>
+      <c r="G91" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="H91" s="31"/>
+      <c r="I91" s="111"/>
+      <c r="J91" s="87"/>
+    </row>
+    <row r="92" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C92" s="45"/>
+      <c r="E92" s="47"/>
     </row>
   </sheetData>
-  <mergeCells count="46">
+  <mergeCells count="58">
+    <mergeCell ref="I90:I91"/>
+    <mergeCell ref="B83:B91"/>
+    <mergeCell ref="C83:C91"/>
+    <mergeCell ref="D83:D91"/>
+    <mergeCell ref="J83:J91"/>
+    <mergeCell ref="A89:A91"/>
+    <mergeCell ref="E89:E91"/>
+    <mergeCell ref="A83:A85"/>
+    <mergeCell ref="E83:E88"/>
     <mergeCell ref="A76:A82"/>
-    <mergeCell ref="B83:B93"/>
-    <mergeCell ref="C83:C93"/>
-    <mergeCell ref="D83:D93"/>
-    <mergeCell ref="E83:E93"/>
-    <mergeCell ref="A83:A93"/>
     <mergeCell ref="C70:C75"/>
     <mergeCell ref="D70:D75"/>
     <mergeCell ref="E70:E75"/>
@@ -4300,6 +4411,14 @@
     <mergeCell ref="C59:C69"/>
     <mergeCell ref="D59:D69"/>
     <mergeCell ref="E59:E69"/>
+    <mergeCell ref="J59:J69"/>
+    <mergeCell ref="J70:J75"/>
+    <mergeCell ref="J76:J82"/>
+    <mergeCell ref="J5:J14"/>
+    <mergeCell ref="J15:J27"/>
+    <mergeCell ref="J28:J39"/>
+    <mergeCell ref="J40:J47"/>
+    <mergeCell ref="J48:J58"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
